--- a/data/zenodo/conversion/chp/CHE_convchp_gas.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_gas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EDCF7F-436A-DA4F-A88D-DB647B5A4C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF41117-041F-5B4B-B537-547563C150C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="75">
   <si>
     <t>Name:</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -676,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -782,16 +785,13 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -803,13 +803,13 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -824,16 +824,16 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>0.44790000000000002</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -845,16 +845,16 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>0.95</v>
+        <v>0.44790000000000002</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -866,26 +866,18 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -895,19 +887,25 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -917,20 +915,20 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>202</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -941,18 +939,20 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -962,16 +962,13 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
@@ -986,13 +983,16 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
@@ -1007,13 +1007,13 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
@@ -1028,19 +1028,16 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="G18">
-        <v>0.85</v>
+      <c r="H18" t="s">
+        <v>46</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>54</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1052,20 +1049,21 @@
         <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1074,26 +1072,20 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>330</v>
-      </c>
-      <c r="H20" t="s">
-        <v>56</v>
+        <v>0.6</v>
       </c>
       <c r="I20" t="s">
         <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1110,7 +1102,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
+      </c>
+      <c r="G21">
+        <v>330</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -1136,7 +1131,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -1162,7 +1157,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -1188,7 +1183,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -1214,7 +1209,7 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -1240,7 +1235,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -1266,7 +1261,7 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -1292,7 +1287,7 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -1318,7 +1313,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -1344,10 +1339,7 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
-      </c>
-      <c r="G30">
-        <v>857</v>
+        <v>1999</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -1373,7 +1365,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
+      </c>
+      <c r="G31">
+        <v>857</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -1399,7 +1394,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -1425,7 +1420,7 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -1451,7 +1446,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -1477,10 +1472,7 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
-      </c>
-      <c r="G35">
-        <v>870</v>
+        <v>2004</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -1506,7 +1498,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
+      </c>
+      <c r="G36">
+        <v>870</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -1532,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -1558,7 +1553,7 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -1584,7 +1579,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -1610,10 +1605,7 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
-      </c>
-      <c r="G40">
-        <v>1028</v>
+        <v>2009</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -1639,7 +1631,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="G41">
+        <v>1028</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -1665,10 +1660,7 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
-      </c>
-      <c r="G42">
-        <v>919</v>
+        <v>2011</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -1694,10 +1686,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>769</v>
+        <v>919</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -1723,10 +1715,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>521</v>
+        <v>769</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -1752,7 +1744,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G45">
+        <v>521</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -1778,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -1804,7 +1799,7 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
@@ -1830,7 +1825,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -1856,7 +1851,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
@@ -1876,25 +1871,22 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
-      </c>
-      <c r="G50">
-        <v>63</v>
+        <v>2019</v>
       </c>
       <c r="H50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s">
         <v>47</v>
       </c>
       <c r="J50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -1911,7 +1903,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
         <v>63</v>
@@ -1940,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
         <v>63</v>
@@ -1969,7 +1961,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
         <v>63</v>
@@ -1998,10 +1990,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="H54" t="s">
         <v>58</v>
@@ -2027,10 +2019,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="H55" t="s">
         <v>58</v>
@@ -2056,10 +2048,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H56" t="s">
         <v>58</v>
@@ -2085,10 +2077,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H57" t="s">
         <v>58</v>
@@ -2114,10 +2106,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="H58" t="s">
         <v>58</v>
@@ -2143,10 +2135,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H59" t="s">
         <v>58</v>
@@ -2172,10 +2164,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H60" t="s">
         <v>58</v>
@@ -2201,10 +2193,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H61" t="s">
         <v>58</v>
@@ -2230,10 +2222,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H62" t="s">
         <v>58</v>
@@ -2259,10 +2251,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="H63" t="s">
         <v>58</v>
@@ -2288,10 +2280,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="H64" t="s">
         <v>58</v>
@@ -2303,7 +2295,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2317,10 +2309,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H65" t="s">
         <v>58</v>
@@ -2332,7 +2324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2346,10 +2338,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="H66" t="s">
         <v>58</v>
@@ -2361,7 +2353,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2375,10 +2367,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H67" t="s">
         <v>58</v>
@@ -2390,7 +2382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2404,10 +2396,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="H68" t="s">
         <v>58</v>
@@ -2419,7 +2411,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2433,10 +2425,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H69" t="s">
         <v>58</v>
@@ -2448,7 +2440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2462,10 +2454,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="H70" t="s">
         <v>58</v>
@@ -2477,7 +2469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2491,10 +2483,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="H71" t="s">
         <v>58</v>
@@ -2506,7 +2498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2520,10 +2512,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="H72" t="s">
         <v>58</v>
@@ -2535,7 +2527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2549,10 +2541,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H73" t="s">
         <v>58</v>
@@ -2564,7 +2556,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2578,10 +2570,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="H74" t="s">
         <v>58</v>
@@ -2593,7 +2585,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2607,10 +2599,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H75" t="s">
         <v>58</v>
@@ -2622,7 +2614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2636,10 +2628,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H76" t="s">
         <v>58</v>
@@ -2651,7 +2643,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2665,10 +2657,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
-        <v>228.011</v>
+        <v>230</v>
       </c>
       <c r="H77" t="s">
         <v>58</v>
@@ -2680,7 +2672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2694,10 +2686,10 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
-        <v>224.96899999999999</v>
+        <v>228.011</v>
       </c>
       <c r="H78" t="s">
         <v>58</v>
@@ -2709,7 +2701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2723,7 +2715,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G79">
         <v>224.96899999999999</v>
@@ -2738,7 +2730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2746,16 +2738,16 @@
         <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>224.96899999999999</v>
       </c>
       <c r="H80" t="s">
         <v>58</v>
@@ -2765,9 +2757,6 @@
       </c>
       <c r="J80" t="s">
         <v>59</v>
-      </c>
-      <c r="L80" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2784,7 +2773,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2816,7 +2805,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2848,7 +2837,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2880,10 +2869,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>58</v>
@@ -2912,10 +2901,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H85" t="s">
         <v>58</v>
@@ -2944,10 +2933,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="H86" t="s">
         <v>58</v>
@@ -2976,10 +2965,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H87" t="s">
         <v>58</v>
@@ -3008,10 +2997,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H88" t="s">
         <v>58</v>
@@ -3040,10 +3029,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>58</v>
@@ -3072,10 +3061,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H90" t="s">
         <v>58</v>
@@ -3104,10 +3093,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H91" t="s">
         <v>58</v>
@@ -3136,10 +3125,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
         <v>58</v>
@@ -3168,10 +3157,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="H93" t="s">
         <v>58</v>
@@ -3200,10 +3189,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
         <v>58</v>
@@ -3232,10 +3221,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>58</v>
@@ -3264,10 +3253,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
         <v>58</v>
@@ -3296,10 +3285,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H97" t="s">
         <v>58</v>
@@ -3328,10 +3317,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>58</v>
@@ -3360,10 +3349,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H99" t="s">
         <v>58</v>
@@ -3392,10 +3381,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="H100" t="s">
         <v>58</v>
@@ -3424,10 +3413,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H101" t="s">
         <v>58</v>
@@ -3456,10 +3445,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>58</v>
@@ -3488,10 +3477,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H103" t="s">
         <v>58</v>
@@ -3520,10 +3509,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>58</v>
@@ -3552,10 +3541,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105" t="s">
         <v>58</v>
@@ -3584,10 +3573,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>58</v>
@@ -3616,7 +3605,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3648,7 +3637,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3680,7 +3669,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3706,13 +3695,13 @@
         <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3744,7 +3733,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3776,7 +3765,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3808,7 +3797,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3840,7 +3829,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3872,7 +3861,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3904,7 +3893,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3936,7 +3925,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3968,10 +3957,10 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H118" t="s">
         <v>58</v>
@@ -4000,10 +3989,10 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H119" t="s">
         <v>58</v>
@@ -4032,7 +4021,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4064,7 +4053,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4096,7 +4085,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4128,7 +4117,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4160,10 +4149,10 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H124" t="s">
         <v>58</v>
@@ -4192,10 +4181,10 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H125" t="s">
         <v>58</v>
@@ -4224,7 +4213,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4256,10 +4245,10 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H127" t="s">
         <v>58</v>
@@ -4288,10 +4277,10 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H128" t="s">
         <v>58</v>
@@ -4320,7 +4309,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4352,7 +4341,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4384,10 +4373,10 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H131" t="s">
         <v>58</v>
@@ -4416,10 +4405,10 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H132" t="s">
         <v>58</v>
@@ -4448,7 +4437,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4480,10 +4469,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>58</v>
@@ -4512,10 +4501,10 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H135" t="s">
         <v>58</v>
@@ -4544,10 +4533,10 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H136" t="s">
         <v>58</v>
@@ -4576,10 +4565,10 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
-        <v>1.9890000000000001</v>
+        <v>9</v>
       </c>
       <c r="H137" t="s">
         <v>58</v>
@@ -4608,10 +4597,10 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
-        <v>3.0419999999999998</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="H138" t="s">
         <v>58</v>
@@ -4640,10 +4629,10 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>3.0419999999999998</v>
       </c>
       <c r="H139" t="s">
         <v>58</v>
@@ -4666,16 +4655,28 @@
         <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>58</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
+      </c>
+      <c r="J140" t="s">
+        <v>59</v>
+      </c>
+      <c r="L140" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4692,7 +4693,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4712,7 +4713,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4732,7 +4733,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4752,7 +4753,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4772,7 +4773,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4792,7 +4793,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4812,7 +4813,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4832,7 +4833,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4852,7 +4853,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4872,7 +4873,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4892,7 +4893,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4912,7 +4913,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -4932,7 +4933,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -4952,7 +4953,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -4972,7 +4973,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -4992,7 +4993,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -5012,7 +5013,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -5032,7 +5033,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -5052,7 +5053,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -5072,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -5092,7 +5093,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -5112,7 +5113,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -5132,7 +5133,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5152,7 +5153,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
@@ -5172,7 +5173,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
@@ -5192,7 +5193,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
@@ -5212,7 +5213,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5232,22 +5233,10 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
-      </c>
-      <c r="G168">
-        <v>19</v>
-      </c>
-      <c r="H168" t="s">
-        <v>61</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
-      </c>
-      <c r="J168" t="s">
-        <v>62</v>
-      </c>
-      <c r="L168" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5264,10 +5253,22 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G169">
+        <v>19</v>
+      </c>
+      <c r="H169" t="s">
+        <v>61</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
+      </c>
+      <c r="J169" t="s">
+        <v>62</v>
+      </c>
+      <c r="L169" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5278,13 +5279,13 @@
         <v>43</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5304,7 +5305,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5324,7 +5325,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5344,7 +5345,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5364,7 +5365,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5384,7 +5385,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5404,7 +5405,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
@@ -5424,7 +5425,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
@@ -5444,7 +5445,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
@@ -5464,7 +5465,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
@@ -5484,7 +5485,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
@@ -5504,7 +5505,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
@@ -5524,7 +5525,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
@@ -5544,7 +5545,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
@@ -5564,7 +5565,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
@@ -5584,7 +5585,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -5604,7 +5605,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
@@ -5624,7 +5625,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
@@ -5644,7 +5645,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
@@ -5664,7 +5665,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
@@ -5684,7 +5685,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
@@ -5704,7 +5705,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
@@ -5724,7 +5725,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
@@ -5744,7 +5745,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
@@ -5764,7 +5765,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
@@ -5784,7 +5785,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
@@ -5804,7 +5805,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
@@ -5824,7 +5825,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -5844,22 +5845,10 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
-      </c>
-      <c r="G198">
-        <v>880</v>
-      </c>
-      <c r="H198" t="s">
-        <v>61</v>
+        <v>2017</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
-      </c>
-      <c r="J198" t="s">
-        <v>62</v>
-      </c>
-      <c r="L198" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -5876,10 +5865,22 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G199">
+        <v>880</v>
+      </c>
+      <c r="H199" t="s">
+        <v>61</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
+      </c>
+      <c r="J199" t="s">
+        <v>62</v>
+      </c>
+      <c r="L199" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -5890,13 +5891,13 @@
         <v>43</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -5916,7 +5917,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -5936,7 +5937,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -5956,7 +5957,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -5976,7 +5977,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -5996,7 +5997,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -6016,7 +6017,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -6036,7 +6037,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -6056,7 +6057,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
@@ -6076,7 +6077,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
@@ -6096,7 +6097,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
@@ -6116,7 +6117,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
@@ -6136,7 +6137,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
@@ -6156,7 +6157,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
@@ -6176,7 +6177,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
@@ -6196,7 +6197,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
@@ -6216,7 +6217,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
@@ -6236,7 +6237,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
@@ -6256,7 +6257,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
@@ -6276,7 +6277,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
@@ -6296,7 +6297,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
@@ -6316,7 +6317,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
@@ -6336,7 +6337,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
@@ -6356,7 +6357,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
@@ -6376,7 +6377,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
@@ -6396,7 +6397,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
@@ -6416,7 +6417,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6436,7 +6437,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
@@ -6456,22 +6457,10 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
-      </c>
-      <c r="G228">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H228" t="s">
-        <v>64</v>
+        <v>2017</v>
       </c>
       <c r="I228" t="s">
         <v>47</v>
-      </c>
-      <c r="J228" t="s">
-        <v>62</v>
-      </c>
-      <c r="L228" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6488,10 +6477,22 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G229">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H229" t="s">
+        <v>64</v>
       </c>
       <c r="I229" t="s">
         <v>47</v>
+      </c>
+      <c r="J229" t="s">
+        <v>62</v>
+      </c>
+      <c r="L229" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6502,28 +6503,16 @@
         <v>43</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>58</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>47</v>
-      </c>
-      <c r="J230" t="s">
-        <v>59</v>
-      </c>
-      <c r="L230" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6540,7 +6529,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6572,7 +6561,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6604,7 +6593,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6636,7 +6625,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6668,7 +6657,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6700,7 +6689,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6732,7 +6721,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6764,10 +6753,10 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H238" t="s">
         <v>58</v>
@@ -6796,10 +6785,10 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H239" t="s">
         <v>58</v>
@@ -6828,7 +6817,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6860,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6892,7 +6881,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6924,7 +6913,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6956,7 +6945,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6988,7 +6977,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7020,7 +7009,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7052,7 +7041,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7084,7 +7073,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7116,7 +7105,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7148,7 +7137,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7180,7 +7169,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7212,7 +7201,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7244,7 +7233,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7276,7 +7265,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7308,7 +7297,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7340,7 +7329,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7372,7 +7361,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7404,7 +7393,7 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -7436,7 +7425,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -7462,22 +7451,28 @@
         <v>43</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>58</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
       </c>
       <c r="J260" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="L260" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7494,13 +7489,16 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
+      </c>
+      <c r="J261" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7517,7 +7515,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
         <v>0.85</v>
@@ -7540,7 +7538,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
         <v>0.85</v>
@@ -7563,7 +7561,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
         <v>0.85</v>
@@ -7586,7 +7584,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
         <v>0.85</v>
@@ -7609,7 +7607,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
         <v>0.85</v>
@@ -7632,7 +7630,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
         <v>0.85</v>
@@ -7655,7 +7653,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
         <v>0.85</v>
@@ -7678,7 +7676,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
         <v>0.85</v>
@@ -7701,7 +7699,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
         <v>0.85</v>
@@ -7724,7 +7722,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
         <v>0.85</v>
@@ -7747,7 +7745,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
         <v>0.85</v>
@@ -7770,7 +7768,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
         <v>0.85</v>
@@ -7793,7 +7791,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
         <v>0.85</v>
@@ -7816,7 +7814,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
         <v>0.85</v>
@@ -7839,7 +7837,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
         <v>0.85</v>
@@ -7862,7 +7860,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
         <v>0.85</v>
@@ -7885,7 +7883,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
         <v>0.85</v>
@@ -7908,7 +7906,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
         <v>0.85</v>
@@ -7931,7 +7929,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
         <v>0.85</v>
@@ -7954,7 +7952,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
         <v>0.85</v>
@@ -7977,7 +7975,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
         <v>0.85</v>
@@ -8000,7 +7998,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
         <v>0.85</v>
@@ -8023,7 +8021,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
         <v>0.85</v>
@@ -8046,7 +8044,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
         <v>0.85</v>
@@ -8069,7 +8067,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
         <v>0.85</v>
@@ -8092,7 +8090,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
         <v>0.85</v>
@@ -8115,7 +8113,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
         <v>0.85</v>
@@ -8138,7 +8136,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
         <v>0.85</v>
@@ -8155,22 +8153,19 @@
         <v>43</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I290" t="s">
         <v>47</v>
-      </c>
-      <c r="J290" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -8187,13 +8182,16 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="s">
         <v>47</v>
+      </c>
+      <c r="J291" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -8210,7 +8208,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
         <v>0.2</v>
@@ -8233,7 +8231,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
         <v>0.2</v>
@@ -8256,7 +8254,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
         <v>0.2</v>
@@ -8279,7 +8277,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
         <v>0.2</v>
@@ -8302,7 +8300,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
         <v>0.2</v>
@@ -8325,7 +8323,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
         <v>0.2</v>
@@ -8348,7 +8346,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
         <v>0.2</v>
@@ -8371,7 +8369,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
         <v>0.2</v>
@@ -8394,7 +8392,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
         <v>0.2</v>
@@ -8417,7 +8415,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
         <v>0.2</v>
@@ -8440,7 +8438,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
         <v>0.2</v>
@@ -8463,7 +8461,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
         <v>0.2</v>
@@ -8486,7 +8484,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
         <v>0.2</v>
@@ -8509,7 +8507,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
         <v>0.2</v>
@@ -8532,7 +8530,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
         <v>0.2</v>
@@ -8555,7 +8553,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
         <v>0.2</v>
@@ -8578,7 +8576,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
         <v>0.2</v>
@@ -8601,7 +8599,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
         <v>0.2</v>
@@ -8624,7 +8622,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
         <v>0.2</v>
@@ -8647,7 +8645,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
         <v>0.2</v>
@@ -8670,7 +8668,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
         <v>0.2</v>
@@ -8693,7 +8691,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
         <v>0.2</v>
@@ -8716,7 +8714,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
         <v>0.2</v>
@@ -8739,7 +8737,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
         <v>0.2</v>
@@ -8762,7 +8760,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
         <v>0.2</v>
@@ -8785,7 +8783,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>0.2</v>
@@ -8808,7 +8806,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>0.2</v>
@@ -8831,7 +8829,7 @@
         <v>39</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G319">
         <v>0.2</v>
@@ -8840,11 +8838,34 @@
         <v>47</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>43</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
+        <v>2019</v>
+      </c>
+      <c r="G320">
+        <v>0.2</v>
+      </c>
+      <c r="I320" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/chp/CHE_convchp_gas.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_gas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF41117-041F-5B4B-B537-547563C150C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32EC6A-3F2A-4A44-86B1-5E75F4D58C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,9 +359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -399,9 +399,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,26 +434,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,26 +469,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,8 +648,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="5" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G261:G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7492,7 +7458,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
@@ -8185,7 +8151,7 @@
         <v>1990</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I291" t="s">
         <v>47</v>
